--- a/medicine/Enfance/Sophie_Audouin-Mamikonian/Sophie_Audouin-Mamikonian.xlsx
+++ b/medicine/Enfance/Sophie_Audouin-Mamikonian/Sophie_Audouin-Mamikonian.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sophie Audouin-Mamikonian, née le 24 août 1961 à Saint-Jean-de-Luz, est une autrice française, notamment connue pour sa série Tara Duncan[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sophie Audouin-Mamikonian, née le 24 août 1961 à Saint-Jean-de-Luz, est une autrice française, notamment connue pour sa série Tara Duncan,.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sophie Audouin-Mamikonian est née en France, le 24 août 1961, dans une famille d'origine arménienne. Elle a grandi dans le Pays basque français[3], où elle puise une partie des contes et légendes qui alimentent son imagination.
-Sophie Audouin-Mamikonian est titulaire d'un Diplôme d'études supérieures spécialisées (DESS) en diplomatie et stratégie. Elle a d'abord travaillé en tant que rédactrice dans la publicité avant de faire éditer ses premiers ouvrages aux éditions du Seuil[4].
-Elle a été faite chevalier des Arts et des Lettres en 2014, puis chevalier de la Légion d'honneur en 2016[5].
-Elle participe à l'association Douleurs sans frontières, présidée par le docteur Alain Serrie. Elle soutient les créations des jeunes auteurs, une volonté marquée notamment par les concours d'écriture et de dessins qu'elle proposait à ses lecteurs[6] et qui permettaient aux gagnants de voir leur création être publiée au sein d'un tome de Tara Duncan, le projet des AutresMondes de Tara Duncan, collection destinée aux jeunes auteurs publiée chez Michel Lafon[7], et ses rôles réguliers de marraine de concours d'écriture lors de différents salons du livre[8].
-Depuis 2019, elle est directrice générale (CEO) de la Princess Sam Pictures, société de production, et travaille à l'adaptation de sa série Tara Duncan[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sophie Audouin-Mamikonian est née en France, le 24 août 1961, dans une famille d'origine arménienne. Elle a grandi dans le Pays basque français, où elle puise une partie des contes et légendes qui alimentent son imagination.
+Sophie Audouin-Mamikonian est titulaire d'un Diplôme d'études supérieures spécialisées (DESS) en diplomatie et stratégie. Elle a d'abord travaillé en tant que rédactrice dans la publicité avant de faire éditer ses premiers ouvrages aux éditions du Seuil.
+Elle a été faite chevalier des Arts et des Lettres en 2014, puis chevalier de la Légion d'honneur en 2016.
+Elle participe à l'association Douleurs sans frontières, présidée par le docteur Alain Serrie. Elle soutient les créations des jeunes auteurs, une volonté marquée notamment par les concours d'écriture et de dessins qu'elle proposait à ses lecteurs et qui permettaient aux gagnants de voir leur création être publiée au sein d'un tome de Tara Duncan, le projet des AutresMondes de Tara Duncan, collection destinée aux jeunes auteurs publiée chez Michel Lafon, et ses rôles réguliers de marraine de concours d'écriture lors de différents salons du livre.
+Depuis 2019, elle est directrice générale (CEO) de la Princess Sam Pictures, société de production, et travaille à l'adaptation de sa série Tara Duncan.
 </t>
         </is>
       </c>
@@ -546,11 +560,13 @@
           <t>Famille et vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sophie Audouin-Mamikonian, née Sophie Tricot, est l'arrière-petite-fille de Pierre Eugène Veber, dramaturge et auteur. Elle est la petite-fille de Pierre-Gilles Veber, journaliste, écrivain et scénariste français, et de Georgette Paul, autrice française d'origine arménienne. Sophie Audouin-Mamikonian est la nièce de Francis Veber, la petite nièce de Serge Veber, scénariste, et l'arrière petite-nièce de Tristan Bernard, auteur français[10],[11],[12].
-Sophie Audouin-Mamikonian se dit, sans fondement, prétendante au trône d'Arménie et descendante de la dynastie des Mamikonian. Elle s'est notamment présentée sous ce titre à l'occasion d'œuvres caritatives à destination de la jeunesse arménienne[13]. Les historiens et généalogistes des familles princières arméniennes Cyrille Toumanoff et Nina Garsoïan ne mentionnent pourtant pas de subsistance contemporaine pour cette famille, soulignant par ailleurs l'absence de sources attestant d'une quelconque descendance après la fin du VIIIe siècle[14].
-Elle est mariée à Philippe Audouin et mère de deux filles, Diane et Marine, qui ont été ses premières lectrices et correctrices[15].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sophie Audouin-Mamikonian, née Sophie Tricot, est l'arrière-petite-fille de Pierre Eugène Veber, dramaturge et auteur. Elle est la petite-fille de Pierre-Gilles Veber, journaliste, écrivain et scénariste français, et de Georgette Paul, autrice française d'origine arménienne. Sophie Audouin-Mamikonian est la nièce de Francis Veber, la petite nièce de Serge Veber, scénariste, et l'arrière petite-nièce de Tristan Bernard, auteur français.
+Sophie Audouin-Mamikonian se dit, sans fondement, prétendante au trône d'Arménie et descendante de la dynastie des Mamikonian. Elle s'est notamment présentée sous ce titre à l'occasion d'œuvres caritatives à destination de la jeunesse arménienne. Les historiens et généalogistes des familles princières arméniennes Cyrille Toumanoff et Nina Garsoïan ne mentionnent pourtant pas de subsistance contemporaine pour cette famille, soulignant par ailleurs l'absence de sources attestant d'une quelconque descendance après la fin du VIIIe siècle.
+Elle est mariée à Philippe Audouin et mère de deux filles, Diane et Marine, qui ont été ses premières lectrices et correctrices.
 </t>
         </is>
       </c>
@@ -579,12 +595,14 @@
           <t>L'autrice</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1987, elle commence la rédaction de Tara Duncan[16]. Le premier tome ne sera édité qu'en 2003, lorsque les maisons d'éditions françaises acceptent de répondre aux attentes des jeunes lecteurs, notamment visibilisées par le succès d'Harry Potter[17]. La saga littéraire Tara Duncan est publiée entre 2003 et 2016, à raison d'un à deux livres par an. Elle a connu plusieurs adaptations transmédiatiques, dont une adaptation en série d'animation 2D en 2010 et un jeu vidéo en ligne[18]. La série a connu un franc succès[19] et les sorties de chaque tome constituaient un rendez-vous important pour sa communauté de lecteurs[20],[21],[17].
-Les livres de Sophie Audouin-Mamikonian lui ont attiré un grand nombre de lecteurs-fans, avec lesquels elle correspond de façon régulière grâce au web[22]. Un fandom qui s'est élargi avec les différentes adaptations de la saga Tara Duncan. En 2008, son blog personnel faisait partie du top 10 des sites les plus visités en France[23].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1987, elle commence la rédaction de Tara Duncan. Le premier tome ne sera édité qu'en 2003, lorsque les maisons d'éditions françaises acceptent de répondre aux attentes des jeunes lecteurs, notamment visibilisées par le succès d'Harry Potter. La saga littéraire Tara Duncan est publiée entre 2003 et 2016, à raison d'un à deux livres par an. Elle a connu plusieurs adaptations transmédiatiques, dont une adaptation en série d'animation 2D en 2010 et un jeu vidéo en ligne. La série a connu un franc succès et les sorties de chaque tome constituaient un rendez-vous important pour sa communauté de lecteurs.
+Les livres de Sophie Audouin-Mamikonian lui ont attiré un grand nombre de lecteurs-fans, avec lesquels elle correspond de façon régulière grâce au web. Un fandom qui s'est élargi avec les différentes adaptations de la saga Tara Duncan. En 2008, son blog personnel faisait partie du top 10 des sites les plus visités en France.
 Sophie Audouin-Mamikonian a également écrit une seconde saga de fantasy, Indiana Teller, centrée sur le thème des loups-garous.
-Elle ne se cantonne pas à la littérature pour adolescents puisqu'elle a également écrit plusieurs romans pour adulte et deux albums pour enfants[24].
+Elle ne se cantonne pas à la littérature pour adolescents puisqu'elle a également écrit plusieurs romans pour adulte et deux albums pour enfants.
 </t>
         </is>
       </c>
